--- a/student/upload/loi-nhap-lieu-dssv.xlsx
+++ b/student/upload/loi-nhap-lieu-dssv.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -50,10 +50,49 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>654661</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t>K65ATTT</t>
+  </si>
+  <si>
+    <t>01/01/2002</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>0978346975</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mã đã tồn tại</t>
+  </si>
+  <si>
+    <t>Lớp không tồn tại</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Nguyễn Thị</t>
+    <t>Nguyễn Thị!!!</t>
   </si>
   <si>
     <t>Bình</t>
@@ -77,13 +116,10 @@
     <t>0984947695</t>
   </si>
   <si>
-    <t>ntb@gmail.com</t>
-  </si>
-  <si>
     <t>Hà Giang</t>
   </si>
   <si>
-    <t/>
+    <t>Họ đệm không hợp lệ</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +128,7 @@
     <t>Nguyễn Lỏ</t>
   </si>
   <si>
-    <t>Cường</t>
+    <t>C2 sảng khoái bất tận</t>
   </si>
   <si>
     <t>67</t>
@@ -113,12 +149,12 @@
     <t>0383817445</t>
   </si>
   <si>
-    <t>nlc@gmail.com</t>
-  </si>
-  <si>
     <t>Hà Tĩnh</t>
   </si>
   <si>
+    <t>Tên không hợp lệ</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -128,7 +164,7 @@
     <t>Dương</t>
   </si>
   <si>
-    <t>68</t>
+    <t>68abc</t>
   </si>
   <si>
     <t>K65CNPMB</t>
@@ -137,16 +173,172 @@
     <t>02/02/2002</t>
   </si>
   <si>
-    <t>0978346975</t>
-  </si>
-  <si>
-    <t>ntd@gmail.com</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
     <t>Khoá không tồn tại</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Nguyễn Trần</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>K65CNTTA</t>
+  </si>
+  <si>
+    <t>03/03/2002</t>
+  </si>
+  <si>
+    <t>nữ</t>
+  </si>
+  <si>
+    <t>Ngành không tồn tại</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Nguyễn Hí</t>
+  </si>
+  <si>
+    <t>Gạch</t>
+  </si>
+  <si>
+    <t>K65 An ninh trật tự</t>
+  </si>
+  <si>
+    <t>02/02/2003</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Nguyễn Ánh</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>K65CNTTB</t>
+  </si>
+  <si>
+    <t>01/01/1970</t>
+  </si>
+  <si>
+    <t>Dạng dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>Ích</t>
+  </si>
+  <si>
+    <t>K65HTTT</t>
+  </si>
+  <si>
+    <t>Bê đê</t>
+  </si>
+  <si>
+    <t>Giới tính không hợp lệ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Nguyễn Lương</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>K65MMT</t>
+  </si>
+  <si>
+    <t>0269abcd</t>
+  </si>
+  <si>
+    <t>Sđt không hợp lệ</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Nguyễn Phong</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>K65TT</t>
+  </si>
+  <si>
+    <t>NỮ</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiên</t>
+  </si>
+  <si>
+    <t>Vương</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Nguyễn La</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
+    <t>K65TTNT</t>
+  </si>
+  <si>
+    <t>Ái chà!!!</t>
+  </si>
+  <si>
+    <t>Quê quán không hợp lệ</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Nguyễn Tích</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>K66ATTT</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Nguyễn Cao</t>
+  </si>
+  <si>
+    <t>Ông</t>
+  </si>
+  <si>
+    <t>K66CNPM</t>
+  </si>
+  <si>
+    <t>0383817446</t>
   </si>
 </sst>
 </file>
@@ -202,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,8 +439,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2" t="s" s="1">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -262,8 +454,8 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="F2" t="s" s="1">
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -274,90 +466,482 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2"/>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
         <v>33</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="1">
+      <c r="C4" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F9" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/student/upload/loi-nhap-lieu-dssv.xlsx
+++ b/student/upload/loi-nhap-lieu-dssv.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>Quê quán</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -434,514 +431,495 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>24</v>
-      </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2"/>
       <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3"/>
       <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4"/>
       <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5"/>
       <c r="K5" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
       <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="J6"/>
       <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
       <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="J7"/>
       <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
       <c r="G8" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="J8"/>
       <c r="K8" t="s">
         <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="J9"/>
       <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s" s="1">
-        <v>85</v>
-      </c>
-      <c r="J10"/>
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
       <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11"/>
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
       <c r="K11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="J12"/>
       <c r="K12" t="s">
         <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>99</v>
+      <c r="J13" t="s" s="1">
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
         <v>43</v>
       </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
       <c r="K14" t="s">
         <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15"/>
+        <v>107</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
       <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
